--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="6240"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>链接</t>
   </si>
@@ -32,6 +32,69 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>xc</t>
   </si>
   <si>
     <t>http://2sc.sohu.com/auto1-alto/</t>
@@ -714,10 +777,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -745,7 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +816,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,13 +832,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,44 +861,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,6 +885,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -866,7 +929,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,31 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,6 +992,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -947,19 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,25 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1135,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,7 +1207,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,62 +1230,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,10 +1243,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,144 +1255,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1650,15 +1712,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EE114"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
-      <selection activeCell="ED4" sqref="ED4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:135">
+    <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,396 +1740,72 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>19</v>
@@ -2082,12 +1820,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>49</v>
@@ -2102,12 +1840,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>51</v>
@@ -2122,12 +1860,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>20</v>
@@ -2142,12 +1880,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>33</v>
@@ -2162,12 +1900,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>18</v>
@@ -2182,12 +1920,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3">
         <v>27</v>
@@ -2202,12 +1940,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3">
         <v>15</v>
@@ -2222,12 +1960,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
         <v>21</v>
@@ -2242,12 +1980,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>25</v>
@@ -2262,12 +2000,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3">
         <v>28</v>
@@ -2282,12 +2020,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3">
         <v>17</v>
@@ -2302,12 +2040,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>30</v>
+      <c r="A14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>68</v>
@@ -2322,12 +2060,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -2342,12 +2080,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -2362,12 +2100,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
@@ -2382,12 +2120,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -2402,12 +2140,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3">
         <v>7</v>
@@ -2422,12 +2160,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
@@ -2442,12 +2180,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -2462,12 +2200,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
         <v>9</v>
@@ -2482,12 +2220,12 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -2502,12 +2240,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3">
         <v>9</v>
@@ -2522,12 +2260,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3">
         <v>18</v>
@@ -2542,12 +2280,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3">
         <v>53</v>
@@ -2562,12 +2300,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
         <v>369</v>
@@ -2582,12 +2320,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3">
         <v>671</v>
@@ -2602,12 +2340,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3">
         <v>2279</v>
@@ -2622,12 +2360,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
         <v>61</v>
@@ -2642,12 +2380,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>63</v>
+      <c r="A31" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B31" s="3">
         <v>708</v>
@@ -2662,12 +2400,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>65</v>
+      <c r="A32" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B32" s="3">
         <v>44</v>
@@ -2682,12 +2420,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3">
         <v>45</v>
@@ -2702,12 +2440,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B34" s="3">
         <v>652</v>
@@ -2722,12 +2460,12 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B35" s="3">
         <v>1339</v>
@@ -2742,12 +2480,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B36" s="3">
         <v>470</v>
@@ -2762,12 +2500,12 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
@@ -2782,12 +2520,12 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -2802,12 +2540,12 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -2822,12 +2560,12 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -2842,12 +2580,12 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2862,12 +2600,12 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -2882,12 +2620,12 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -2902,12 +2640,12 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -2922,12 +2660,12 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -2942,12 +2680,12 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -2962,12 +2700,12 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2982,12 +2720,12 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -3002,12 +2740,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -3022,12 +2760,12 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -3042,12 +2780,12 @@
         <v>0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3062,12 +2800,12 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3">
         <v>486</v>
@@ -3082,12 +2820,12 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3">
         <v>246</v>
@@ -3102,12 +2840,12 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3">
         <v>39</v>
@@ -3122,12 +2860,12 @@
         <v>0</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B55" s="3">
         <v>496</v>
@@ -3142,12 +2880,12 @@
         <v>0</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B56" s="3">
         <v>323</v>
@@ -3162,12 +2900,12 @@
         <v>0</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B57" s="3">
         <v>39</v>
@@ -3182,12 +2920,12 @@
         <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B58" s="3">
         <v>39</v>
@@ -3202,12 +2940,12 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3">
         <v>39</v>
@@ -3222,12 +2960,12 @@
         <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3">
         <v>39</v>
@@ -3242,12 +2980,12 @@
         <v>0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B61" s="3">
         <v>39</v>
@@ -3262,12 +3000,12 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B62" s="3">
         <v>39</v>
@@ -3282,12 +3020,12 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3">
         <v>39</v>
@@ -3302,12 +3040,12 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B64" s="3">
         <v>39</v>
@@ -3322,12 +3060,12 @@
         <v>0</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B65" s="3">
         <v>39</v>
@@ -3342,12 +3080,12 @@
         <v>0</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B66" s="3">
         <v>39</v>
@@ -3362,12 +3100,12 @@
         <v>0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B67" s="3">
         <v>39</v>
@@ -3382,12 +3120,12 @@
         <v>0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3">
         <v>39</v>
@@ -3402,12 +3140,12 @@
         <v>0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B69" s="3">
         <v>39</v>
@@ -3422,12 +3160,12 @@
         <v>0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B70" s="3">
         <v>39</v>
@@ -3442,12 +3180,12 @@
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B71" s="3">
         <v>39</v>
@@ -3462,12 +3200,12 @@
         <v>0</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B72" s="3">
         <v>39</v>
@@ -3482,12 +3220,12 @@
         <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B73" s="3">
         <v>39</v>
@@ -3502,12 +3240,12 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B74" s="3">
         <v>39</v>
@@ -3522,12 +3260,12 @@
         <v>0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B75" s="3">
         <v>39</v>
@@ -3542,12 +3280,12 @@
         <v>0</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B76" s="3">
         <v>39</v>
@@ -3562,12 +3300,12 @@
         <v>0</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B77" s="3">
         <v>39</v>
@@ -3582,12 +3320,12 @@
         <v>0</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B78" s="3">
         <v>39</v>
@@ -3602,12 +3340,12 @@
         <v>0</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3">
         <v>39</v>
@@ -3622,12 +3360,12 @@
         <v>0</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B80" s="3">
         <v>39</v>
@@ -3642,12 +3380,12 @@
         <v>0</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B81" s="3">
         <v>39</v>
@@ -3662,12 +3400,12 @@
         <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B82" s="3">
         <v>39</v>
@@ -3682,12 +3420,12 @@
         <v>0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B83" s="3">
         <v>39</v>
@@ -3702,12 +3440,12 @@
         <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:6">
       <c r="A84" s="3" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B84" s="3">
         <v>39</v>
@@ -3722,12 +3460,12 @@
         <v>0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3">
         <v>39</v>
@@ -3742,12 +3480,12 @@
         <v>0</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B86" s="3">
         <v>39</v>
@@ -3762,12 +3500,12 @@
         <v>0</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B87" s="3">
         <v>39</v>
@@ -3782,12 +3520,12 @@
         <v>0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B88" s="3">
         <v>39</v>
@@ -3802,12 +3540,12 @@
         <v>0</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B89" s="3">
         <v>39</v>
@@ -3822,12 +3560,12 @@
         <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B90" s="3">
         <v>39</v>
@@ -3842,12 +3580,12 @@
         <v>0</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B91" s="3">
         <v>39</v>
@@ -3862,12 +3600,12 @@
         <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:6">
       <c r="A92" s="3" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B92" s="3">
         <v>39</v>
@@ -3882,12 +3620,12 @@
         <v>0</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:6">
       <c r="A93" s="3" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B93" s="3">
         <v>39</v>
@@ -3902,12 +3640,12 @@
         <v>0</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B94" s="3">
         <v>708</v>
@@ -3922,12 +3660,12 @@
         <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B95" s="3">
         <v>288</v>
@@ -3942,12 +3680,12 @@
         <v>0</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B96" s="3">
         <v>488</v>
@@ -3962,12 +3700,12 @@
         <v>0</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -3982,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -4002,12 +3740,12 @@
         <v>0</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:6">
       <c r="A99" s="3" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -4022,12 +3760,12 @@
         <v>0</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:6">
       <c r="A100" s="3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -4042,12 +3780,12 @@
         <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:6">
       <c r="A101" s="3" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -4062,12 +3800,12 @@
         <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -4082,12 +3820,12 @@
         <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -4102,12 +3840,12 @@
         <v>0</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -4122,12 +3860,12 @@
         <v>0</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -4142,12 +3880,12 @@
         <v>0</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B106" s="3">
         <v>1</v>
@@ -4162,12 +3900,12 @@
         <v>0</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:6">
       <c r="A107" s="3" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
@@ -4182,12 +3920,12 @@
         <v>0</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:6">
       <c r="A108" s="3" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B108" s="3">
         <v>1</v>
@@ -4202,12 +3940,12 @@
         <v>0</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:6">
       <c r="A109" s="3" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -4222,12 +3960,12 @@
         <v>0</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B110" s="3">
         <v>1</v>
@@ -4242,12 +3980,12 @@
         <v>0</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -4262,12 +4000,12 @@
         <v>0</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -4282,12 +4020,12 @@
         <v>0</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -4302,12 +4040,12 @@
         <v>0</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -4322,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>链接</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>【二手斯柯达晶锐报价|斯柯达晶锐二手车价格】_搜狐二手车,诚信有保障!</t>
-  </si>
-  <si>
-    <t>【二手大众Polo报价|大众Polo二手车价格】_搜狐二手车,诚信有保障!</t>
-  </si>
-  <si>
-    <t>【二手起亚狮跑报价|起亚狮跑二手车价格】_搜狐二手车,诚信有保障!</t>
   </si>
   <si>
     <t>【二手吉利自由舰报价|吉利自由舰二手车价格】_搜狐二手车,诚信有保障!</t>
@@ -1302,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -1405,7 +1399,7 @@
     </row>
     <row r="7" s="3" spans="1:7">
       <c r="B7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="8" s="3" spans="1:7">
       <c r="B8" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1433,7 +1427,7 @@
     </row>
     <row r="9" s="3" spans="1:7">
       <c r="B9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="10" s="3" spans="1:7">
       <c r="B10" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1461,7 +1455,7 @@
     </row>
     <row r="11" s="3" spans="1:7">
       <c r="B11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1475,7 +1469,7 @@
     </row>
     <row r="12" s="3" spans="1:7">
       <c r="B12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1484,12 +1478,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" s="3" spans="1:7">
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1498,12 +1492,12 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" s="3" spans="1:7">
       <c r="B14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1517,7 +1511,7 @@
     </row>
     <row r="15" s="3" spans="1:7">
       <c r="B15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="16" s="3" spans="1:7">
       <c r="B16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1573,7 +1567,7 @@
     </row>
     <row r="19" s="3" spans="1:7">
       <c r="B19" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1587,7 +1581,7 @@
     </row>
     <row r="20" s="3" spans="1:7">
       <c r="B20" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="21" s="3" spans="1:7">
       <c r="B21" t="n">
-        <v>18</v>
+        <v>369</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1615,7 +1609,7 @@
     </row>
     <row r="22" s="3" spans="1:7">
       <c r="B22" t="n">
-        <v>53</v>
+        <v>671</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1629,7 +1623,7 @@
     </row>
     <row r="23" s="3" spans="1:7">
       <c r="B23" t="n">
-        <v>369</v>
+        <v>2279</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1643,7 +1637,7 @@
     </row>
     <row r="24" s="3" spans="1:7">
       <c r="B24" t="n">
-        <v>671</v>
+        <v>61</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="25" s="3" spans="1:7">
       <c r="B25" t="n">
-        <v>2279</v>
+        <v>708</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="26" s="3" spans="1:7">
       <c r="B26" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1685,7 +1679,7 @@
     </row>
     <row r="27" s="3" spans="1:7">
       <c r="B27" t="n">
-        <v>708</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1699,7 +1693,7 @@
     </row>
     <row r="28" s="3" spans="1:7">
       <c r="B28" t="n">
-        <v>44</v>
+        <v>652</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1713,7 +1707,7 @@
     </row>
     <row r="29" s="3" spans="1:7">
       <c r="B29" t="n">
-        <v>45</v>
+        <v>1339</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1727,7 +1721,7 @@
     </row>
     <row r="30" s="3" spans="1:7">
       <c r="B30" t="n">
-        <v>652</v>
+        <v>470</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1741,7 +1735,7 @@
     </row>
     <row r="31" s="3" spans="1:7">
       <c r="B31" t="n">
-        <v>1339</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1755,7 +1749,7 @@
     </row>
     <row r="32" s="3" spans="1:7">
       <c r="B32" t="n">
-        <v>470</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1769,7 +1763,7 @@
     </row>
     <row r="33" s="3" spans="1:7">
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1951,7 +1945,7 @@
     </row>
     <row r="46" s="3" spans="1:7">
       <c r="B46" t="n">
-        <v>1</v>
+        <v>486</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1965,7 +1959,7 @@
     </row>
     <row r="47" s="3" spans="1:7">
       <c r="B47" t="n">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1979,7 +1973,7 @@
     </row>
     <row r="48" s="3" spans="1:7">
       <c r="B48" t="n">
-        <v>486</v>
+        <v>39</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1993,7 +1987,7 @@
     </row>
     <row r="49" s="3" spans="1:7">
       <c r="B49" t="n">
-        <v>246</v>
+        <v>496</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -2007,7 +2001,7 @@
     </row>
     <row r="50" s="3" spans="1:7">
       <c r="B50" t="n">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -2021,7 +2015,7 @@
     </row>
     <row r="51" s="3" spans="1:7">
       <c r="B51" t="n">
-        <v>496</v>
+        <v>39</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2035,7 +2029,7 @@
     </row>
     <row r="52" s="3" spans="1:7">
       <c r="B52" t="n">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2539,7 +2533,7 @@
     </row>
     <row r="88" s="3" spans="1:7">
       <c r="B88" t="n">
-        <v>39</v>
+        <v>708</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2553,7 +2547,7 @@
     </row>
     <row r="89" s="3" spans="1:7">
       <c r="B89" t="n">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2567,7 +2561,7 @@
     </row>
     <row r="90" s="3" spans="1:7">
       <c r="B90" t="n">
-        <v>708</v>
+        <v>488</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -2581,7 +2575,7 @@
     </row>
     <row r="91" s="3" spans="1:7">
       <c r="B91" t="n">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -2595,7 +2589,7 @@
     </row>
     <row r="92" s="3" spans="1:7">
       <c r="B92" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2831,34 +2825,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" s="3" spans="1:7">
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" s="3" spans="1:7">
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>117</v>
-      </c>
-    </row>
+    <row r="109" s="3" spans="1:7"/>
+    <row r="110" s="3" spans="1:7"/>
     <row r="111" s="3" spans="1:7"/>
     <row r="112" s="3" spans="1:7"/>
     <row r="113" s="3" spans="1:7"/>
